--- a/Leibniz Abfrage/Publikationen/publications_report.xlsx
+++ b/Leibniz Abfrage/Publikationen/publications_report.xlsx
@@ -12,15 +12,15 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="nonopenaccess">Sheet1!$A$1:$B$18</definedName>
-    <definedName name="openaccess">Sheet1!$A$20:$C$37</definedName>
+    <definedName name="nonopenaccess">Sheet1!$A$1:$B$9</definedName>
+    <definedName name="openaccess">Sheet1!$A$11:$C$19</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>9.1.1 Publikationen im Berichtsjahr (ohne Open-Access-Publikationen)</t>
   </si>
@@ -67,70 +67,16 @@
     <t>Anzahl von Beiträgen in Sammelbänden</t>
   </si>
   <si>
-    <t>${confpapers.value}</t>
-  </si>
-  <si>
-    <t>${slideshows.value}</t>
-  </si>
-  <si>
     <t>${datasets.value}</t>
   </si>
   <si>
-    <t>${confposters.value}</t>
-  </si>
-  <si>
-    <t>${manuals.value}</t>
-  </si>
-  <si>
-    <t>Anzahl von Konferenzpapers</t>
-  </si>
-  <si>
-    <t>Anzahl von Vortragsfolien</t>
-  </si>
-  <si>
     <t>Anzahl von Datasets</t>
   </si>
   <si>
-    <t>Anzahl von Konferenzpostern</t>
-  </si>
-  <si>
-    <t>Anzahl von Manuals</t>
-  </si>
-  <si>
-    <t>${editorials.value}</t>
-  </si>
-  <si>
-    <t>${abstracts.value}</t>
-  </si>
-  <si>
-    <t>${theses.value}</t>
-  </si>
-  <si>
-    <t>Anzahl von Leitartikeln</t>
-  </si>
-  <si>
-    <t>Anzahl von Abstracts</t>
-  </si>
-  <si>
-    <t>Anzahl von Abschlussarbeiten</t>
-  </si>
-  <si>
     <t>9.1 Publikationen und Forschungsdaten</t>
   </si>
   <si>
     <t xml:space="preserve"> - davon referierten Beiträgen in Fachzeitschriften</t>
-  </si>
-  <si>
-    <t>${videos.value}</t>
-  </si>
-  <si>
-    <t>Anzahl von Videos</t>
-  </si>
-  <si>
-    <t>Anzahl von Forschungsprojektanträgen</t>
-  </si>
-  <si>
-    <t>${proposals.value}</t>
   </si>
 </sst>
 </file>
@@ -542,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +503,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -591,7 +537,7 @@
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>11</v>
@@ -618,267 +564,105 @@
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>15</v>
-      </c>
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>16</v>
-      </c>
+    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="3"/>
+    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="A19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="5"/>
+      <c r="C19" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
